--- a/Results_sheets.xlsx
+++ b/Results_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7c2dd55e68566da/Documents/GitHub/Bankruptcy-Prediction-for-Polish-Enterprises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC104833A91956C25ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B943A1-C5F6-4804-8C45-72CD9ADC833E}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104833A91956C25ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E720A753-0869-4186-B41D-26C19206F1A1}"/>
   <bookViews>
-    <workbookView xWindow="12257" yWindow="0" windowWidth="12514" windowHeight="14794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12257" yWindow="0" windowWidth="12514" windowHeight="14794" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rates" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="33">
   <si>
     <t>accuracy</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -195,6 +189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -682,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2E94F2-889D-4C74-A509-3F6AF2A2476E}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -819,7 +817,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>22</v>
@@ -833,7 +831,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -847,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -861,7 +859,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>25</v>

--- a/Results_sheets.xlsx
+++ b/Results_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7c2dd55e68566da/Documents/GitHub/Bankruptcy-Prediction-for-Polish-Enterprises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_F25DC773A252ABDACC104833A91956C25ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E720A753-0869-4186-B41D-26C19206F1A1}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABDACC104833A91956C25ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE5D188-3970-47A7-8101-57BDAB117311}"/>
   <bookViews>
-    <workbookView xWindow="12257" yWindow="0" windowWidth="12514" windowHeight="14794" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12257" yWindow="0" windowWidth="12514" windowHeight="14794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rates" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
   <si>
     <t>accuracy</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>lr08</t>
+  </si>
+  <si>
+    <t>lr01</t>
   </si>
 </sst>
 </file>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -577,6 +583,28 @@
       </c>
       <c r="C10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>59.375</v>
+      </c>
+      <c r="B11">
+        <v>56.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>70.31</v>
+      </c>
+      <c r="B12">
+        <v>18.75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2E94F2-889D-4C74-A509-3F6AF2A2476E}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Results_sheets.xlsx
+++ b/Results_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7c2dd55e68566da/Documents/GitHub/Bankruptcy-Prediction-for-Polish-Enterprises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABDACC104833A91956C25ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCE5D188-3970-47A7-8101-57BDAB117311}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC104833A91956C25ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128C02A5-9945-4283-9A1D-C8388A958880}"/>
   <bookViews>
-    <workbookView xWindow="12257" yWindow="0" windowWidth="12514" windowHeight="14794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12257" yWindow="0" windowWidth="12514" windowHeight="14794" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rates" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="37">
   <si>
     <t>accuracy</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>lr01</t>
+  </si>
+  <si>
+    <t>maczynski</t>
+  </si>
+  <si>
+    <t>poznanski</t>
   </si>
 </sst>
 </file>
@@ -175,11 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -605,6 +612,28 @@
       </c>
       <c r="C12" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>65.63</v>
+      </c>
+      <c r="B13" s="2">
+        <v>56.25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>65.625</v>
+      </c>
+      <c r="B14">
+        <v>37.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -706,10 +735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2E94F2-889D-4C74-A509-3F6AF2A2476E}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1176,6 +1205,118 @@
         <v>23</v>
       </c>
     </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
